--- a/stm32handC5_411CEU6/MDK-ARM/test1_output_check.xlsx
+++ b/stm32handC5_411CEU6/MDK-ARM/test1_output_check.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pengo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D3EE01-480B-46AE-85AB-3E5ABB4BA57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5429465A-3123-4F92-BF62-6A7E711E4EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4895F19-CF0F-4530-B89E-BF431EF441AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,13 +32,12 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -61,14 +60,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -103,7 +98,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -115,7 +110,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -132,7 +127,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -162,29 +157,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -214,23 +192,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,10 +343,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA316FA6-0D98-4596-8C4A-A2F8FFFF1AB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1010" workbookViewId="0">
       <selection sqref="A1:A1024"/>
     </sheetView>
   </sheetViews>
@@ -393,5122 +354,5122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>10.164999999999999</v>
+        <v>-15.855499999999999</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.93573</v>
+        <v>1.98064</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7.1765600000000003</v>
+        <v>-5.8082099999999999</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11.535399999999999</v>
+        <v>-10.2469</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>15.1873</v>
+        <v>-0.17902499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>13.8894</v>
+        <v>16.355</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>23.965800000000002</v>
+        <v>16.2498</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>25.920200000000001</v>
+        <v>15.2606</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>26.2043</v>
+        <v>14.9575</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>29.523399999999999</v>
+        <v>-3.4403700000000002</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>22.510300000000001</v>
+        <v>-4.5002800000000001</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>20.2515</v>
+        <v>-3.14418</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>14.583600000000001</v>
+        <v>7.0298400000000001</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17.420000000000002</v>
+        <v>2.8735400000000002</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>16.549700000000001</v>
+        <v>-7.6924999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16.333300000000001</v>
+        <v>-5.7758099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18.723400000000002</v>
+        <v>-7.4388699999999996</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21.063600000000001</v>
+        <v>-4.3399200000000002</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15.355499999999999</v>
+        <v>-4.1107100000000001</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15.299799999999999</v>
+        <v>-3.73129</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9.7309199999999993</v>
+        <v>-12.5137</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>13.1074</v>
+        <v>-12.065200000000001</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7.4609399999999999</v>
+        <v>-3.14473</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6.4562200000000001</v>
+        <v>-2.3092100000000002</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6.9865899999999996</v>
+        <v>-17.871099999999998</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5.7497199999999999</v>
+        <v>-10.942</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3.2607300000000001</v>
+        <v>-4.6827699999999997</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5.6456999999999997</v>
+        <v>-6.4059200000000001</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>6.6480300000000003</v>
+        <v>-7.8091400000000002</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10.015700000000001</v>
+        <v>-6.4720500000000003</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2.8565399999999999</v>
+        <v>-5.9470299999999998</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>7.6812500000000004</v>
+        <v>-5.5249199999999998</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2.44896</v>
+        <v>-0.89413399999999998</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-1.3948499999999999</v>
+        <v>2.6304400000000001</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2.3081999999999998</v>
+        <v>-0.59114</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>6.8280900000000004</v>
+        <v>-3.86042</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2.6261299999999999</v>
+        <v>-2.8252700000000002</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>8.5667299999999997</v>
+        <v>5.5363699999999998</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>9.3581800000000008</v>
+        <v>17.572399999999998</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>9.0281099999999999</v>
+        <v>20.4922</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5.76877</v>
+        <v>-10.804500000000001</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2.1920199999999999</v>
+        <v>-14.613799999999999</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2.8429000000000002</v>
+        <v>-5.61503</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1.9693000000000001</v>
+        <v>-2.3673600000000001</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9.9630200000000002</v>
+        <v>-6.85839</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>8.4128699999999998</v>
+        <v>-11.7814</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>3.6778</v>
+        <v>-10.706200000000001</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2.4159299999999999</v>
+        <v>-9.1874099999999999</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3.7870699999999999</v>
+        <v>-7.5304500000000001</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1.1640699999999999</v>
+        <v>-10.2468</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-2.41012</v>
+        <v>-8.3782499999999995</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>-1.71146</v>
+        <v>-16.340399999999999</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.52532900000000005</v>
+        <v>-8.6269899999999993</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-0.107719</v>
+        <v>-5.7256099999999996</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>-0.88254100000000002</v>
+        <v>-5.7784199999999997</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.4839</v>
+        <v>-21.1783</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1.7685599999999999</v>
+        <v>-19.523099999999999</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2.5194999999999999</v>
+        <v>-15.483499999999999</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-0.87107900000000005</v>
+        <v>-13.689500000000001</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1.16534</v>
+        <v>-13.2476</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2.62013E-2</v>
+        <v>-13.006500000000001</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>-1.1064400000000001</v>
+        <v>-15.6296</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>-6.8298500000000004</v>
+        <v>0.18992200000000001</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>-1.3668899999999999</v>
+        <v>-2.1816499999999999</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>-4.5832800000000002</v>
+        <v>-9.8809299999999993</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>-3.6957399999999998</v>
+        <v>-21.907599999999999</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>-4.8291700000000004</v>
+        <v>-19.5899</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>-5.2270599999999998</v>
+        <v>-13.6518</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>-3.5062799999999998</v>
+        <v>-10.728899999999999</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>-1.3630899999999999</v>
+        <v>-4.38544</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>-13.215199999999999</v>
+        <v>-8.90062</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>-15.649900000000001</v>
+        <v>-15.461600000000001</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-11.904199999999999</v>
+        <v>-17.413699999999999</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>-12.7301</v>
+        <v>-16.833600000000001</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>-7.2842500000000001</v>
+        <v>-18.042200000000001</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>-14.1958</v>
+        <v>-18.763400000000001</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>-9.7165800000000004</v>
+        <v>-20.133600000000001</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>-11.4224</v>
+        <v>-13.863099999999999</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>-13.566700000000001</v>
+        <v>-9.6610700000000005</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>-17.819700000000001</v>
+        <v>-14.7972</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>-15.764900000000001</v>
+        <v>-9.48156</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>-20.003799999999998</v>
+        <v>-12.937099999999999</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>-13.2584</v>
+        <v>-23.977399999999999</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>-10.416600000000001</v>
+        <v>-16.506</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>-18.527699999999999</v>
+        <v>-4.9734100000000003</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>-21.4864</v>
+        <v>-1.06012</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>-19.140999999999998</v>
+        <v>-14.0411</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>-21.792899999999999</v>
+        <v>-4.7236900000000004</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>-20.781400000000001</v>
+        <v>-4.5460200000000004</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>-18.951000000000001</v>
+        <v>-6.0966500000000003</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>-21.9786</v>
+        <v>2.2980700000000001</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>-21.075399999999998</v>
+        <v>-2.0163099999999998</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>-24.338100000000001</v>
+        <v>-6.3368000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>-19.191199999999998</v>
+        <v>-3.7269100000000002</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-19.1967</v>
+        <v>7.6589900000000002</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>-21.448399999999999</v>
+        <v>4.7180600000000004</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>-19.4297</v>
+        <v>0.123084</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>-15.2788</v>
+        <v>0.93476499999999996</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>-18.461200000000002</v>
+        <v>13.8131</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>-17.421800000000001</v>
+        <v>16.0945</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>-15.026300000000001</v>
+        <v>19.649100000000001</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>-17.812000000000001</v>
+        <v>24.7836</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>-21.714500000000001</v>
+        <v>0.84131599999999995</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>-28.395700000000001</v>
+        <v>4.4929800000000002</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>-24.192699999999999</v>
+        <v>15.211</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>-24.752500000000001</v>
+        <v>16.2119</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>-27.361699999999999</v>
+        <v>11.2338</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>-36.7547</v>
+        <v>9.1474399999999996</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>-50.005499999999998</v>
+        <v>8.8660300000000003</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>-52.709000000000003</v>
+        <v>27.6767</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>-51.020499999999998</v>
+        <v>27.273800000000001</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>-45.671799999999998</v>
+        <v>21.831700000000001</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>-45.877400000000002</v>
+        <v>-1.65984</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>-43.042099999999998</v>
+        <v>2.1467299999999998</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>-30.446999999999999</v>
+        <v>10.6244</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>-28.421700000000001</v>
+        <v>11.7895</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>-25.924700000000001</v>
+        <v>8.8924900000000004</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>-24.776399999999999</v>
+        <v>2.40889</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>-29.355</v>
+        <v>2.59016</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>-25.403300000000002</v>
+        <v>24.677900000000001</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>-21.215</v>
+        <v>19.621400000000001</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>-23.570499999999999</v>
+        <v>23.390499999999999</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>-39.533499999999997</v>
+        <v>6.7100799999999996</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>-35.455300000000001</v>
+        <v>1.2125600000000001</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>-25.1783</v>
+        <v>11.440099999999999</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>-29.822900000000001</v>
+        <v>16.472899999999999</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>-30.028500000000001</v>
+        <v>8.7441200000000006</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>-29.480699999999999</v>
+        <v>4.4864699999999997</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>-41.401899999999998</v>
+        <v>-3.6427499999999999</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>-51.268799999999999</v>
+        <v>-2.7144499999999998</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>-46.325299999999999</v>
+        <v>8.9871300000000001E-2</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>-45.017299999999999</v>
+        <v>-8.4876699999999996</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>-43.7181</v>
+        <v>-4.3764599999999998</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>-45.171399999999998</v>
+        <v>-7.4658800000000003</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>-35.417099999999998</v>
+        <v>-5.0217999999999999E-3</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>-47.518700000000003</v>
+        <v>4.4402100000000004</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>-30.812000000000001</v>
+        <v>7.3182200000000003E-2</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>-23.514500000000002</v>
+        <v>-11.516400000000001</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>-24.4526</v>
+        <v>-6.6613699999999998</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>-22.165299999999998</v>
+        <v>-0.79286299999999998</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>-28.9238</v>
+        <v>4.4161200000000003</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>-13.701000000000001</v>
+        <v>13.2753</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>-23.813300000000002</v>
+        <v>-5.0233499999999998</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>-20.6051</v>
+        <v>-6.5897300000000003</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>-17.7578</v>
+        <v>-5.6282899999999998</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>-16.096299999999999</v>
+        <v>5.0770999999999997</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>-15.361499999999999</v>
+        <v>-0.31522800000000001</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>-20.699200000000001</v>
+        <v>-0.74036999999999997</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>-13.855600000000001</v>
+        <v>-5.5979400000000004</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>-11.7864</v>
+        <v>-8.3786299999999994</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>-13.4779</v>
+        <v>-11.614699999999999</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>-11.0473</v>
+        <v>-4.7575099999999999</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>-4.4744799999999998</v>
+        <v>-3.5356000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>-8.0447399999999991</v>
+        <v>-8.0610199999999992</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>-13.9444</v>
+        <v>-8.1855600000000006</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>-12.084099999999999</v>
+        <v>-0.53678800000000004</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>-8.5040700000000005</v>
+        <v>-0.98613499999999998</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>-13.347799999999999</v>
+        <v>-18.1386</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>-9.1186199999999999</v>
+        <v>-18.960799999999999</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>-1.474</v>
+        <v>-18.255199999999999</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>-3.4286599999999998</v>
+        <v>-13.713699999999999</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>0.13691600000000001</v>
+        <v>-17.703600000000002</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>-1.8342099999999999</v>
+        <v>-15.677099999999999</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>-0.58906400000000003</v>
+        <v>-16.8048</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>-0.92637499999999995</v>
+        <v>-22.664400000000001</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>-4.9558400000000002</v>
+        <v>-16.653600000000001</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>-2.4993300000000001</v>
+        <v>-20.105499999999999</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>0.22320000000000001</v>
+        <v>-38.221899999999998</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>3.6830799999999999</v>
+        <v>-39.810699999999997</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>-0.29012399999999999</v>
+        <v>-26.221900000000002</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1.72786</v>
+        <v>-10.984</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>4.4991000000000003</v>
+        <v>-13.914999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>7.0061799999999996</v>
+        <v>-10.178699999999999</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>6.7165100000000004</v>
+        <v>-16.136199999999999</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>5.8026</v>
+        <v>-21.661300000000001</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>3.9738600000000002</v>
+        <v>-15.241400000000001</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>3.2758799999999999</v>
+        <v>-10.508900000000001</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>9.6625200000000007</v>
+        <v>-10.450699999999999</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>16.579999999999998</v>
+        <v>-20.8506</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>16.0763</v>
+        <v>-24.102599999999999</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>12.781000000000001</v>
+        <v>-16.151900000000001</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>21.758800000000001</v>
+        <v>-18.127700000000001</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>21.669</v>
+        <v>-13.2948</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>20.0289</v>
+        <v>-15.616099999999999</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>21.738299999999999</v>
+        <v>-27.683900000000001</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>20.1968</v>
+        <v>-37.693300000000001</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>33.400799999999997</v>
+        <v>-32.4054</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>34.077800000000003</v>
+        <v>-20.8139</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>27.371400000000001</v>
+        <v>-14.8147</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>37.686100000000003</v>
+        <v>-15.662800000000001</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>37.188299999999998</v>
+        <v>-11.7905</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>40.2151</v>
+        <v>-15.6957</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>33.589799999999997</v>
+        <v>-14.285299999999999</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>45.642299999999999</v>
+        <v>-13.0166</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>48.606099999999998</v>
+        <v>-20.313400000000001</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>49.085000000000001</v>
+        <v>-19.119700000000002</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>48.057299999999998</v>
+        <v>-15.305300000000001</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>50.654899999999998</v>
+        <v>-13.694900000000001</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>50.679900000000004</v>
+        <v>-30.091000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>49.549100000000003</v>
+        <v>-27.408999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>49.969499999999996</v>
+        <v>-30.3596</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>55.023600000000002</v>
+        <v>-21.1023</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>62.508699999999997</v>
+        <v>-23.204000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>58.490900000000003</v>
+        <v>-20.924499999999998</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>59.860300000000002</v>
+        <v>-31.4115</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>61.731999999999999</v>
+        <v>-42.276800000000001</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>53.878599999999999</v>
+        <v>-24.388200000000001</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>61.527099999999997</v>
+        <v>-18.669899999999998</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>62.2117</v>
+        <v>-29.3752</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>63.574300000000001</v>
+        <v>-28.186199999999999</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>63.475700000000003</v>
+        <v>-17.88</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>67.254999999999995</v>
+        <v>-14.2501</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>69.822900000000004</v>
+        <v>-17.610800000000001</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>70.277500000000003</v>
+        <v>-11.8691</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>67.138199999999998</v>
+        <v>-16.758299999999998</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>61.527099999999997</v>
+        <v>-28.4587</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>59.065300000000001</v>
+        <v>-30.5562</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>57.567599999999999</v>
+        <v>-28.726700000000001</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>54.914999999999999</v>
+        <v>-35.974899999999998</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>54.7258</v>
+        <v>-44.6723</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>57.0154</v>
+        <v>-23.3126</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>57.267899999999997</v>
+        <v>-17.573399999999999</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>55.706200000000003</v>
+        <v>-23.0198</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>60.472299999999997</v>
+        <v>-14.819100000000001</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>53.799799999999998</v>
+        <v>-15.3734</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>55.799199999999999</v>
+        <v>-19.604199999999999</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>56.651899999999998</v>
+        <v>-21.2576</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>55.168500000000002</v>
+        <v>-13.3909</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>56.298499999999997</v>
+        <v>-11.955299999999999</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>53.670299999999997</v>
+        <v>-16.241499999999998</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>55.587600000000002</v>
+        <v>-15.0533</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>49.624000000000002</v>
+        <v>-11.9659</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>53.1858</v>
+        <v>-10.0687</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>57.1402</v>
+        <v>-16.3748</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>55.7804</v>
+        <v>-9.8820700000000006</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>52.985900000000001</v>
+        <v>-12.701000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>52.068399999999997</v>
+        <v>-9.0564099999999996</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>55.681699999999999</v>
+        <v>3.8961700000000001</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>49.609499999999997</v>
+        <v>-0.114215</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>47.795000000000002</v>
+        <v>-7.5844300000000002</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>56.436399999999999</v>
+        <v>-10.8345</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>53.106099999999998</v>
+        <v>-10.658099999999999</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>46.443199999999997</v>
+        <v>-8.24451</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>45.639499999999998</v>
+        <v>-6.4901299999999997</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>46.762099999999997</v>
+        <v>17.933800000000002</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>50.364600000000003</v>
+        <v>-4.5401899999999999</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>50.5535</v>
+        <v>-5.74315</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>54.0642</v>
+        <v>4.5881299999999996</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>50.744799999999998</v>
+        <v>9.5973400000000009</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>53.575600000000001</v>
+        <v>6.6366199999999997</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>57.861400000000003</v>
+        <v>-1.29261</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>49.484499999999997</v>
+        <v>-4.03735</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>51.094299999999997</v>
+        <v>-4.8462899999999998</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>51.5274</v>
+        <v>-3.24973</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>45.921900000000001</v>
+        <v>-5.4156199999999997</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>52.878300000000003</v>
+        <v>-8.6307700000000001</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>49.169499999999999</v>
+        <v>-4.4999099999999999</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>47.634799999999998</v>
+        <v>3.00989</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>48.1449</v>
+        <v>11.2432</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>46.564799999999998</v>
+        <v>4.0736299999999996</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>45.510199999999998</v>
+        <v>-1.79817</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>43.986600000000003</v>
+        <v>-4.9322999999999997</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>30.46</v>
+        <v>-4.7456800000000001</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>40.232399999999998</v>
+        <v>6.2289599999999998</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>44.829599999999999</v>
+        <v>14.9428</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>21.7973</v>
+        <v>6.8436500000000002</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>33.651200000000003</v>
+        <v>-4.6595000000000004</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>30.109000000000002</v>
+        <v>1.6992700000000001</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>36.412999999999997</v>
+        <v>11.576499999999999</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>19.36</v>
+        <v>13.1442</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>35.131999999999998</v>
+        <v>8.9239399999999997E-2</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>31.173100000000002</v>
+        <v>-1.16252</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>34.5092</v>
+        <v>2.4246699999999999</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>42.145000000000003</v>
+        <v>16.466000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>29.055700000000002</v>
+        <v>17.530799999999999</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>23.934699999999999</v>
+        <v>-4.8659699999999999</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>26.273099999999999</v>
+        <v>-10.7186</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>38.163200000000003</v>
+        <v>-3.0522100000000001</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>28.217099999999999</v>
+        <v>7.8963400000000004</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>27.933900000000001</v>
+        <v>6.0445900000000004</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>27.9407</v>
+        <v>1.7714399999999999</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>22.594000000000001</v>
+        <v>-0.34718100000000002</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>14.749000000000001</v>
+        <v>-3.07992</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>18.642299999999999</v>
+        <v>-0.49360900000000002</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>19.9846</v>
+        <v>-4.67896</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>17.98</v>
+        <v>9.8086900000000004</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>32.328800000000001</v>
+        <v>0.35124</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>14.978</v>
+        <v>1.53891</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>8.3879699999999993</v>
+        <v>10.1388</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>11.2517</v>
+        <v>12.597</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>10.1601</v>
+        <v>10.454000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>12.5907</v>
+        <v>4.6581400000000004</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>6.32165</v>
+        <v>4.2336400000000003</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>9.8806499999999993</v>
+        <v>4.8012699999999997</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>17.140899999999998</v>
+        <v>19.750499999999999</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>13.2271</v>
+        <v>18.506</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>11.9628</v>
+        <v>4.3216999999999999</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>13.384499999999999</v>
+        <v>0.81822099999999998</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>14.0169</v>
+        <v>14.7887</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>8.7424599999999995</v>
+        <v>16.203299999999999</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>10.4948</v>
+        <v>12.2468</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>9.5885700000000007</v>
+        <v>6.3495299999999997</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>10.042</v>
+        <v>4.0926200000000001</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>9.2980800000000006</v>
+        <v>20.088899999999999</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>10.555899999999999</v>
+        <v>16.363700000000001</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>14.9544</v>
+        <v>21.165199999999999</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>9.9341699999999999</v>
+        <v>23.362200000000001</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>8.6806699999999992</v>
+        <v>-0.123081</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>14.568</v>
+        <v>19.3781</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>11.239800000000001</v>
+        <v>27.901700000000002</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>16.725000000000001</v>
+        <v>19.950500000000002</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>8.4130400000000005</v>
+        <v>17.584199999999999</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>11.674200000000001</v>
+        <v>35.6631</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>12.819699999999999</v>
+        <v>34.067900000000002</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>9.1150500000000001</v>
+        <v>19.765799999999999</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>7.8096399999999999</v>
+        <v>29.133099999999999</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>6.23055</v>
+        <v>28.968699999999998</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>5.2241400000000002</v>
+        <v>10.830399999999999</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>3.1419700000000002</v>
+        <v>10.389699999999999</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>3.7582399999999998</v>
+        <v>25.047599999999999</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>-1.11114</v>
+        <v>29.3492</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>-3.6884600000000001</v>
+        <v>15.616400000000001</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>-6.8201400000000003</v>
+        <v>11.1386</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>-2.82314</v>
+        <v>5.1231799999999996</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>-1.55881</v>
+        <v>4.6405099999999999</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>5.2080299999999999</v>
+        <v>16.551500000000001</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>4.7439200000000001</v>
+        <v>17.6571</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>5.0012299999999996</v>
+        <v>-1.79108</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>6.23698</v>
+        <v>2.3937400000000002</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>3.07917</v>
+        <v>11.5921</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>1.3940600000000001</v>
+        <v>9.3525500000000008</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>-2.2402199999999999</v>
+        <v>4.5257399999999999</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>-0.56538500000000003</v>
+        <v>3.23739</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>1.06894</v>
+        <v>9.4166899999999991</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>7.33935E-2</v>
+        <v>2.7416900000000002</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>1.7672399999999999</v>
+        <v>13.202199999999999</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>-2.5166900000000001</v>
+        <v>25.914999999999999</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>-1.93222</v>
+        <v>21.3874</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>-0.425902</v>
+        <v>4.3408199999999999</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>-4.46624</v>
+        <v>12.904999999999999</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>-0.209532</v>
+        <v>15.7163</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>-1.17482</v>
+        <v>6.7551899999999998</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>-0.90608299999999997</v>
+        <v>5.7161600000000004</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>0.47423999999999999</v>
+        <v>-4.02996</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>2.4447899999999998</v>
+        <v>5.7645799999999996</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>0.28176400000000001</v>
+        <v>7.1147499999999999</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>-0.60806499999999997</v>
+        <v>14.789</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>-0.65911900000000001</v>
+        <v>2.7621000000000002</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>2.12981</v>
+        <v>-1.73289</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>0.15251999999999999</v>
+        <v>6.1856099999999996</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>0.22090499999999999</v>
+        <v>10.282500000000001</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>-5.0020300000000004</v>
+        <v>8.9934999999999992</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>-6.9807199999999998</v>
+        <v>-5.8587400000000001</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>0.20326900000000001</v>
+        <v>-0.67118900000000004</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>0.95650900000000005</v>
+        <v>3.4672999999999998</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>7.7739000000000003</v>
+        <v>-1.4268400000000001</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>4.8931300000000002</v>
+        <v>6.8410500000000001</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>6.0938699999999999</v>
+        <v>-0.46507999999999999</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>3.22376</v>
+        <v>-7.6312100000000003</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>4.6730900000000002</v>
+        <v>-2.3175699999999999</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>12.9245</v>
+        <v>6.1444299999999998</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>7.5068999999999999</v>
+        <v>9.6174400000000002</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>8.1971299999999996</v>
+        <v>-2.7331300000000001</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>9.9859200000000001</v>
+        <v>-1.8188</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>9.5696300000000001</v>
+        <v>-8.7286199999999994</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>6.4139900000000001</v>
+        <v>-9.2063199999999998</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>6.8904500000000004</v>
+        <v>-4.4256000000000002</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>3.3879199999999998</v>
+        <v>1.64202</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>3.7934000000000001</v>
+        <v>-9.0884800000000006</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>2.2455400000000001</v>
+        <v>-6.3228600000000004</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>6.3432300000000001</v>
+        <v>-4.3135500000000002</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>3.6802600000000001</v>
+        <v>-0.34892899999999999</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>0.99145300000000003</v>
+        <v>-8.9687099999999997</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>0.51887799999999995</v>
+        <v>-4.8640699999999999</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>1.02322</v>
+        <v>-7.5591200000000001</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>0.93758900000000001</v>
+        <v>-12.914300000000001</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>-2.42475</v>
+        <v>-10.4472</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>3.3932600000000002</v>
+        <v>-0.76841499999999996</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>-8.0726200000000006</v>
+        <v>-12.5762</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>-2.3422200000000002</v>
+        <v>-14.9968</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>-0.28155000000000002</v>
+        <v>-7.12357</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>-0.10088900000000001</v>
+        <v>-1.71662</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>-1.0975900000000001</v>
+        <v>-7.7178500000000003</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>3.1123099999999999</v>
+        <v>-31.454499999999999</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>0.361628</v>
+        <v>-26.769300000000001</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>-0.67388300000000001</v>
+        <v>-25.2166</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>2.2504400000000002</v>
+        <v>-24.230699999999999</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>5.3626800000000001</v>
+        <v>-19.6126</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>3.2645200000000001</v>
+        <v>-20.3353</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>3.0900300000000001</v>
+        <v>-28.237100000000002</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>0.22799900000000001</v>
+        <v>-19.613800000000001</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>3.4019200000000001</v>
+        <v>-12.363099999999999</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>2.1669700000000001</v>
+        <v>-33.845799999999997</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>4.0587</v>
+        <v>-37.515599999999999</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>1.06003</v>
+        <v>-28.108899999999998</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>5.8940099999999997</v>
+        <v>-21.954499999999999</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>3.7501699999999998</v>
+        <v>-26.313600000000001</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>1.0850299999999999</v>
+        <v>-21.118099999999998</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>2.4125399999999999</v>
+        <v>-15.9732</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>0.53708100000000003</v>
+        <v>-21.285</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>2.8361800000000001</v>
+        <v>-19.988199999999999</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>6.8540999999999999</v>
+        <v>-12.9603</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>2.29366</v>
+        <v>-10.2418</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>6.8814200000000003</v>
+        <v>-26.7653</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>6.5990900000000003</v>
+        <v>-16.618500000000001</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>0.282474</v>
+        <v>-14.8</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>2.4167399999999999</v>
+        <v>-16.291399999999999</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>4.0598799999999997</v>
+        <v>-16.8813</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>5.6282800000000002</v>
+        <v>-12.3116</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>4.9217500000000003</v>
+        <v>-22.6356</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>9.2415800000000008</v>
+        <v>-20.373799999999999</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>3.1146400000000001</v>
+        <v>-14.5425</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>6.5060399999999996</v>
+        <v>-18.426600000000001</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>-0.17760500000000001</v>
+        <v>-31.308700000000002</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>2.49274</v>
+        <v>-25.155100000000001</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>5.0930299999999997</v>
+        <v>-20.0442</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>7.0502399999999996</v>
+        <v>-17.331299999999999</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>4.6703700000000001</v>
+        <v>-20.520700000000001</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>3.44136</v>
+        <v>-16.55</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>3.0542699999999998</v>
+        <v>-12.995200000000001</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>1.6319399999999999</v>
+        <v>-20.2226</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>4.7090500000000004</v>
+        <v>-14.645099999999999</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>4.9073399999999996</v>
+        <v>-8.0469500000000007</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>0.942963</v>
+        <v>-11.573600000000001</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>11.237500000000001</v>
+        <v>-10.825799999999999</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>3.4327999999999999</v>
+        <v>-14.674799999999999</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>4.4299400000000002</v>
+        <v>-8.3740000000000006</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>7.3262600000000004</v>
+        <v>-6.7243500000000003</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>7.4020099999999998</v>
+        <v>-6.17319</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>3.3218999999999999</v>
+        <v>-9.4654500000000006</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>2.1843400000000002</v>
+        <v>-12.5611</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>1.34087</v>
+        <v>-6.0445799999999998</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>-0.54490799999999995</v>
+        <v>-2.86009</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>-0.77079200000000003</v>
+        <v>-0.52681999999999995</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>-1.92381</v>
+        <v>-14.5069</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>6.6399E-2</v>
+        <v>-8.4144199999999998</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>-2.2176200000000001</v>
+        <v>-8.6524400000000004</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>3.6760199999999998</v>
+        <v>-2.2561900000000001</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>0.91287600000000002</v>
+        <v>-2.6638899999999999</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>0.206176</v>
+        <v>-11.7873</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>1.4049499999999999</v>
+        <v>-11.9558</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>2.7674500000000002</v>
+        <v>-9.6839300000000001</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>0.89267099999999999</v>
+        <v>2.2061999999999999</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>3.5230399999999999</v>
+        <v>1.5666100000000001</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>1.07698</v>
+        <v>0.72212299999999996</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>0.81064700000000001</v>
+        <v>3.29471E-2</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>-0.58845800000000004</v>
+        <v>-4.3590600000000004</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>0.31338100000000002</v>
+        <v>-5.5349599999999999</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>2.7792500000000002</v>
+        <v>-1.62015</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>2.2517200000000002</v>
+        <v>-7.5701799999999997</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>3.6167699999999998</v>
+        <v>-10.1797</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>3.0728800000000001</v>
+        <v>-5.5450799999999996</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>3.2197499999999999</v>
+        <v>1.43188</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>-0.279916</v>
+        <v>5.5146899999999999</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>-0.818218</v>
+        <v>-6.7080000000000002</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>-0.26024599999999998</v>
+        <v>-1.89262</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>0.17038900000000001</v>
+        <v>-5.9155300000000004</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>1.9558599999999999</v>
+        <v>1.1931799999999999</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>4.4239300000000004</v>
+        <v>-2.71719</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>5.0341300000000002</v>
+        <v>5.4778099999999998</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>4.6033799999999996</v>
+        <v>-9.0193999999999992</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>3.3082099999999999</v>
+        <v>-7.1840700000000002</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>3.6338699999999999</v>
+        <v>1.9510000000000001</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>6.1597900000000001</v>
+        <v>9.8577999999999992</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>3.3885999999999998</v>
+        <v>-0.36498199999999997</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>5.6981400000000004</v>
+        <v>-3.8546399999999998</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>2.88171</v>
+        <v>-4.4398</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>1.6003799999999999</v>
+        <v>-1.7307699999999999</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>1.1916800000000001</v>
+        <v>7.5684800000000001</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>-1.9439200000000001</v>
+        <v>8.4402200000000001</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>-4.0782699999999998</v>
+        <v>2.3102</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>2.8099099999999999</v>
+        <v>-5.7774099999999997</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>1.96977</v>
+        <v>2.6129899999999999</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>-2.77522</v>
+        <v>11.4764</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>-0.72703700000000004</v>
+        <v>9.3307000000000002</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>-0.66744300000000001</v>
+        <v>-0.85070800000000002</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>0.42193999999999998</v>
+        <v>0.14943400000000001</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>-5.8730900000000004</v>
+        <v>6.2674899999999996</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>-6.0489199999999999</v>
+        <v>-1.0644400000000001</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>-0.89446199999999998</v>
+        <v>13.242699999999999</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>8.0611699999999994E-2</v>
+        <v>5.16988</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>-1.02728</v>
+        <v>-2.1782599999999999</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>-1.7761199999999999</v>
+        <v>-3.1448299999999998</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>-9.5377600000000005</v>
+        <v>4.4176599999999997</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>-11.5566</v>
+        <v>8.5207700000000006</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>-6.5833500000000003</v>
+        <v>5.3749599999999997</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>-7.7306699999999999</v>
+        <v>-1.3476600000000001</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>-8.1910299999999996</v>
+        <v>-4.3402000000000003</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>-7.54155</v>
+        <v>-1.0963099999999999</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>-3.4039199999999998</v>
+        <v>17.0246</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>-10.2483</v>
+        <v>18.819199999999999</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>-5.9358300000000002</v>
+        <v>-7.1105499999999999</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>2.57612</v>
+        <v>3.7643399999999998</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>0.77671299999999999</v>
+        <v>6.7854700000000001</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>-1.47736</v>
+        <v>5.8883900000000002</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>-0.72751500000000002</v>
+        <v>2.7082199999999998</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>-4.9400000000000004</v>
+        <v>-7.8375399999999997</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>-4.3177599999999998</v>
+        <v>-4.6837099999999996</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>-1.54728</v>
+        <v>-3.7125499999999998</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>3.6923900000000001</v>
+        <v>0.43924200000000002</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>4.9182300000000003</v>
+        <v>15.426600000000001</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>3.1326399999999999</v>
+        <v>-4.3256699999999997</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>2.6761599999999999</v>
+        <v>-4.4558799999999996</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>2.05192</v>
+        <v>6.8643000000000001</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>2.8536000000000001</v>
+        <v>9.9310100000000006</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>3.4927000000000001</v>
+        <v>4.9296100000000003</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>5.10642</v>
+        <v>-1.6391</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>4.4571199999999997</v>
+        <v>-5.3327</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>7.0949999999999998</v>
+        <v>-3.7173099999999999</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>12.366099999999999</v>
+        <v>-1.5414099999999999</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>10.7728</v>
+        <v>4.3765599999999996</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>11.298500000000001</v>
+        <v>-8.9012499999999992</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>13.0756</v>
+        <v>-12.9794</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>13.531599999999999</v>
+        <v>-6.6321199999999996</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>13.257899999999999</v>
+        <v>7.31088</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>10.732799999999999</v>
+        <v>-0.79447599999999996</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>17.183800000000002</v>
+        <v>-0.67904600000000004</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>13.289899999999999</v>
+        <v>-1.7341299999999999</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>16.840599999999998</v>
+        <v>-1.5974699999999999</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>13.133900000000001</v>
+        <v>-3.7251099999999999</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>9.8299299999999992</v>
+        <v>-4.49071</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>16.654900000000001</v>
+        <v>-1.3739699999999999</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>20.494299999999999</v>
+        <v>-9.0304800000000007</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>21.845199999999998</v>
+        <v>-7.3899800000000004</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>27.363600000000002</v>
+        <v>4.7652099999999997</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>25.526499999999999</v>
+        <v>0.50685999999999998</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>33.779699999999998</v>
+        <v>-3.51938</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>28.858599999999999</v>
+        <v>-2.8712499999999999</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>37.615600000000001</v>
+        <v>-7.6746499999999997</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>31.167200000000001</v>
+        <v>-7.1627700000000001</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>22.228400000000001</v>
+        <v>0.22697700000000001</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>18.43</v>
+        <v>3.3580199999999998</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>16.582100000000001</v>
+        <v>-7.6453300000000004</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>12.948499999999999</v>
+        <v>-4.3715700000000002</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>16.1479</v>
+        <v>-0.773563</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>10.712</v>
+        <v>7.0953999999999997</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>13.3178</v>
+        <v>-1.2604200000000001</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>13.957800000000001</v>
+        <v>-4.4861199999999997</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>7.4400500000000003</v>
+        <v>-6.0493300000000003</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>9.3435900000000007</v>
+        <v>-11.5176</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>11.8124</v>
+        <v>-4.7194099999999999</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>5.3081300000000002</v>
+        <v>0.456762</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>3.8060700000000001</v>
+        <v>-11.3428</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>3.38408</v>
+        <v>-11.1358</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>2.53783</v>
+        <v>-5.6406099999999997</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>5.9463699999999999</v>
+        <v>5.87826</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>-0.88258700000000001</v>
+        <v>5.4986800000000002</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>-0.46636100000000003</v>
+        <v>-9.6516000000000005E-2</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>-0.10009899999999999</v>
+        <v>-3.3672800000000001</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>-0.27995100000000001</v>
+        <v>-3.0182199999999999</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>-0.65969199999999995</v>
+        <v>-8.0042799999999996</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>-3.8277999999999999</v>
+        <v>-0.30462400000000001</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>-3.0433500000000002</v>
+        <v>-2.41716</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>-5.3038800000000004</v>
+        <v>-3.1093999999999999</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>-9.0967400000000005</v>
+        <v>0.29315200000000002</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>-12.7507</v>
+        <v>7.3966200000000004</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>-15.6782</v>
+        <v>5.9516299999999998</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>-16.5657</v>
+        <v>-4.9983899999999997</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>-16.4983</v>
+        <v>-0.26524500000000001</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>-25.8841</v>
+        <v>5.6612499999999999</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>-25.1568</v>
+        <v>5.0628700000000002</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>-28.145800000000001</v>
+        <v>23.555199999999999</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>-19.156400000000001</v>
+        <v>22.206299999999999</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>-24.391999999999999</v>
+        <v>0.19492899999999999</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>-26.136299999999999</v>
+        <v>0.77137900000000004</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>-26.829000000000001</v>
+        <v>8.8857499999999998</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>-25.875900000000001</v>
+        <v>6.7155300000000002</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>-26.924399999999999</v>
+        <v>1.75963</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>-33.9208</v>
+        <v>3.5362399999999998</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>-22.1373</v>
+        <v>17.812100000000001</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>-31.557600000000001</v>
+        <v>20.723600000000001</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>-29.368200000000002</v>
+        <v>18.7226</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>-23.226900000000001</v>
+        <v>20.1007</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>-40.242400000000004</v>
+        <v>0.58938000000000001</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>-45.642600000000002</v>
+        <v>8.5040200000000006</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>-50.1676</v>
+        <v>18.414899999999999</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>-49.294699999999999</v>
+        <v>27.116900000000001</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>-45.717199999999998</v>
+        <v>19.258400000000002</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>-55.322299999999998</v>
+        <v>8.3663799999999995</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>-57.025199999999998</v>
+        <v>10.4954</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>-57.462899999999998</v>
+        <v>19.790500000000002</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>-56.231999999999999</v>
+        <v>20.212499999999999</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>-55.810600000000001</v>
+        <v>26.740300000000001</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>-56.334800000000001</v>
+        <v>15.647399999999999</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>-49.596299999999999</v>
+        <v>0.69466499999999998</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>-51.255899999999997</v>
+        <v>13.1366</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>-55.546300000000002</v>
+        <v>12.9725</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>-42.959600000000002</v>
+        <v>12.6524</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>-37.636899999999997</v>
+        <v>5.6349200000000002</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>-21.5321</v>
+        <v>3.7054399999999998</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>-19.206099999999999</v>
+        <v>5.3134399999999999</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>-20.859500000000001</v>
+        <v>16.7666</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>-34.9099</v>
+        <v>23.872800000000002</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>-22.506499999999999</v>
+        <v>13.876099999999999</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>-19.280200000000001</v>
+        <v>2.9538899999999999</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>-22.754000000000001</v>
+        <v>7.36104</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>-18.268999999999998</v>
+        <v>14.0458</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>-16.415299999999998</v>
+        <v>12.525600000000001</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>-8.71556</v>
+        <v>4.8271100000000002</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>-12.1495</v>
+        <v>1.26962</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>-10.713699999999999</v>
+        <v>22.222300000000001</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>-11.024100000000001</v>
+        <v>18.533200000000001</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>-12.6633</v>
+        <v>21.909300000000002</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>-10.107200000000001</v>
+        <v>22.700900000000001</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>-4.6331300000000004</v>
+        <v>-2.78898</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>-2.0880399999999999</v>
+        <v>6.3408899999999999</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>0.12636</v>
+        <v>14.348699999999999</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>-0.32401600000000003</v>
+        <v>15.316700000000001</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>-1.8584799999999999</v>
+        <v>9.6458100000000009</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>-3.2658800000000001</v>
+        <v>4.2461099999999998</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>-9.7699499999999997</v>
+        <v>7.5612300000000001</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>3.1620599999999999</v>
+        <v>11.1815</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>1.48367</v>
+        <v>22.192699999999999</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>-5.0018799999999999</v>
+        <v>23.577500000000001</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>-5.4094699999999998</v>
+        <v>5.4300300000000004</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>-2.7130700000000001</v>
+        <v>4.8094299999999999</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>0.51061900000000005</v>
+        <v>14.1912</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>-8.9405600000000002E-2</v>
+        <v>12.970599999999999</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>-3.8552900000000001</v>
+        <v>10.9925</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>-2.4578899999999999</v>
+        <v>2.3823099999999999</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>-3.1401599999999998</v>
+        <v>-0.46498099999999998</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>-2.34382</v>
+        <v>0.20094300000000001</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>-2.7508699999999999</v>
+        <v>0.64677099999999998</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>-2.9199299999999999</v>
+        <v>21.5334</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>-2.1594799999999998</v>
+        <v>5.7782099999999996</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>-0.39797300000000002</v>
+        <v>1.5232600000000001</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>-6.19726</v>
+        <v>7.4924600000000003</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>-6.7707699999999997</v>
+        <v>7.8170799999999998</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>-6.6506800000000004</v>
+        <v>9.6243499999999997</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>-1.5293699999999999</v>
+        <v>3.2649499999999998</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>-8.5325799999999994</v>
+        <v>-4.3187100000000003</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>-7.8071799999999998</v>
+        <v>0.77940900000000002</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>-11.1341</v>
+        <v>16.7315</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>-15.0548</v>
+        <v>21.559899999999999</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>-21.965199999999999</v>
+        <v>11.8172</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>-17.8628</v>
+        <v>3.51207</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>-16.625299999999999</v>
+        <v>14.6442</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>-12.5479</v>
+        <v>19.809000000000001</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>-13.9716</v>
+        <v>17.4785</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>-14.2721</v>
+        <v>5.57552</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>-16.363399999999999</v>
+        <v>9.6051199999999994</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>-21.5488</v>
+        <v>22.673300000000001</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>-20.446899999999999</v>
+        <v>20.498000000000001</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>-32.946100000000001</v>
+        <v>2.6264799999999999</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>-31.3672</v>
+        <v>12.0229</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>-30.196400000000001</v>
+        <v>1.0098199999999999</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>-25.1188</v>
+        <v>4.3856299999999999</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>-26.492999999999999</v>
+        <v>12.7509</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>-25.3291</v>
+        <v>15.955399999999999</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>-25.003599999999999</v>
+        <v>6.2726100000000002</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>-28.252600000000001</v>
+        <v>0.82255199999999995</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>-44.290399999999998</v>
+        <v>0.94774700000000001</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>-43.634999999999998</v>
+        <v>2.40971</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>-32.585500000000003</v>
+        <v>18.278400000000001</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>-40.057499999999997</v>
+        <v>23.385300000000001</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>-42.901000000000003</v>
+        <v>0.99308200000000002</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>-34.910800000000002</v>
+        <v>4.37134</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>-25.541</v>
+        <v>11.7956</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>-24.8262</v>
+        <v>15.7188</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>-26.7578</v>
+        <v>3.7099099999999998</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>-20.9499</v>
+        <v>7.3337500000000002</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>-23.831</v>
+        <v>5.1494799999999996</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>-21.011099999999999</v>
+        <v>10.440899999999999</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>-19.622599999999998</v>
+        <v>17.5182</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>-19.503499999999999</v>
+        <v>22.230799999999999</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>-7.03627</v>
+        <v>6.1232499999999996</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>-8.2283399999999993</v>
+        <v>1.70197</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>-11.012</v>
+        <v>11.4826</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>-15.35</v>
+        <v>20.308700000000002</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>-13.3736</v>
+        <v>14.030900000000001</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>-7.8282999999999996</v>
+        <v>13.517799999999999</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>-7.9644000000000004</v>
+        <v>16.354199999999999</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>-2.3492000000000002</v>
+        <v>23.4971</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>2.9685600000000001</v>
+        <v>15.793699999999999</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>3.16812</v>
+        <v>21.1524</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>-1.0854900000000001</v>
+        <v>27.0578</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>3.3738600000000001</v>
+        <v>4.0492100000000004</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>-4.9480900000000001E-2</v>
+        <v>13.6027</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>-7.3265399999999996</v>
+        <v>31.885200000000001</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>-4.5756399999999999</v>
+        <v>19.964400000000001</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>-1.5310900000000001</v>
+        <v>8.5434000000000001</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>5.7958299999999996</v>
+        <v>11.036199999999999</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>6.8617400000000002</v>
+        <v>12.811199999999999</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>4.0414399999999997</v>
+        <v>22.0002</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>2.60711</v>
+        <v>29.279499999999999</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>0.95484100000000005</v>
+        <v>31.458600000000001</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>3.9562400000000002</v>
+        <v>6.8128099999999998</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>2.8935900000000001</v>
+        <v>13.9648</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>0.59658900000000004</v>
+        <v>18.860399999999998</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>-1.0803199999999999</v>
+        <v>17.297699999999999</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>1.45634</v>
+        <v>14.537000000000001</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>4.3006900000000003</v>
+        <v>12.3743</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>3.14866</v>
+        <v>10.510400000000001</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>8.4015699999999995</v>
+        <v>23.253399999999999</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>5.1285600000000002</v>
+        <v>26.546399999999998</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>2.85778</v>
+        <v>26.133400000000002</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>-3.70485</v>
+        <v>8.7856400000000008</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>2.7081200000000001</v>
+        <v>7.1998699999999998</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>-2.55999</v>
+        <v>17.5078</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>-2.46774</v>
+        <v>23.7165</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>-3.4255800000000001</v>
+        <v>13.309100000000001</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>-7.0665399999999998</v>
+        <v>6.0125000000000002</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>-5.4810999999999996</v>
+        <v>7.1650600000000004</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>-3.3461400000000001</v>
+        <v>16.788699999999999</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>0.55607600000000001</v>
+        <v>16.430800000000001</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>-4.48977</v>
+        <v>26.4162</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>-8.6714900000000004</v>
+        <v>15.811500000000001</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>-8.95486</v>
+        <v>0.96672800000000003</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>-12.9503</v>
+        <v>13.4338</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>-4.8700700000000001</v>
+        <v>18.514399999999998</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>-2.2256</v>
+        <v>16.0975</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>-2.40469</v>
+        <v>4.8821700000000003</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>-5.2864000000000004</v>
+        <v>3.1925599999999998</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>-5.2351400000000003</v>
+        <v>3.9649899999999998</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>-12.057499999999999</v>
+        <v>6.2043499999999998</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>-11.4353</v>
+        <v>18.346699999999998</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>-10.106299999999999</v>
+        <v>7.1767599999999998</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>-7.2000999999999999</v>
+        <v>-0.29127399999999998</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>-7.3385699999999998</v>
+        <v>13.5626</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>-3.6814399999999998</v>
+        <v>21.997900000000001</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>-2.4365600000000001</v>
+        <v>15.3125</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>-1.9111499999999999</v>
+        <v>7.7317999999999998</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>-2.91587</v>
+        <v>4.7171399999999997</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>-0.78692799999999996</v>
+        <v>6.1358199999999998</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>-2.3558699999999999</v>
+        <v>15.061</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>-0.44154700000000002</v>
+        <v>19.280200000000001</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>2.1950599999999998</v>
+        <v>18.706900000000001</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>1.3166899999999999</v>
+        <v>-3.48441</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>3.31067</v>
+        <v>5.1139400000000004</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>4.8587300000000004</v>
+        <v>9.3688199999999995</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>0.86980000000000002</v>
+        <v>11.035299999999999</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>2.1655899999999999</v>
+        <v>7.2168999999999999</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>-9.7608200000000006E-2</v>
+        <v>2.8702999999999999</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>0.87422299999999997</v>
+        <v>-1.18476</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>2.3007399999999998</v>
+        <v>0.41562399999999999</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>1.2926800000000001</v>
+        <v>19.872699999999998</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>-1.83178</v>
+        <v>10.077500000000001</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>2.6389900000000002</v>
+        <v>8.5857799999999997</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>1.76271</v>
+        <v>2.59239</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>0.32725599999999999</v>
+        <v>12.713100000000001</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>-1.77281</v>
+        <v>14.852399999999999</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>-2.76553</v>
+        <v>8.5663</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>-1.3143199999999999</v>
+        <v>0.26069700000000001</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>0.37270900000000001</v>
+        <v>-3.5870099999999998</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>0.681365</v>
+        <v>0.17954200000000001</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>1.79792</v>
+        <v>6.0595999999999997</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>-3.0619200000000002</v>
+        <v>18.9741</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>-4.2123999999999997</v>
+        <v>2.24214</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>-1.6765399999999999</v>
+        <v>0.49856699999999998</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>-0.98458100000000004</v>
+        <v>12.9779</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>-5.2553099999999997</v>
+        <v>18.266200000000001</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>-7.5766499999999999</v>
+        <v>14.1896</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>-5.5135800000000001</v>
+        <v>2.39839</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>-6.1691000000000003</v>
+        <v>7.0439400000000001</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>-5.9819000000000004</v>
+        <v>21.6997</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>0.23394599999999999</v>
+        <v>18.231000000000002</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>2.57206</v>
+        <v>19.9938</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>2.6297700000000002</v>
+        <v>0.88390500000000005</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>4.4316300000000002</v>
+        <v>0.706731</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>-0.61357499999999998</v>
+        <v>10.7072</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>-6.6412800000000001</v>
+        <v>16.3367</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>-8.9135500000000008</v>
+        <v>14.849</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>-5.0490599999999999</v>
+        <v>0.20274800000000001</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>-7.10684</v>
+        <v>-1.71106</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>-3.32002</v>
+        <v>-1.33317</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>-4.4434199999999997</v>
+        <v>6.4913800000000004</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>-1.0679000000000001</v>
+        <v>5.5564299999999998</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>-2.7728899999999999</v>
+        <v>-1.1363000000000001</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>0.42909399999999998</v>
+        <v>-7.4587199999999996</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>-0.25714599999999999</v>
+        <v>-4.3704200000000002</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>-0.14144100000000001</v>
+        <v>10.565300000000001</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>-0.551898</v>
+        <v>11.800599999999999</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>-0.96492100000000003</v>
+        <v>4.7686500000000001</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>-0.231243</v>
+        <v>0.56022499999999997</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>1.3612500000000001</v>
+        <v>0.81841900000000001</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>2.22011</v>
+        <v>-4.3347600000000002</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>7.6848400000000003</v>
+        <v>5.6008899999999997</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>5.1487499999999997</v>
+        <v>15.3575</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>-0.40711999999999998</v>
+        <v>-6.2637499999999999</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>-2.7395800000000001</v>
+        <v>0.89585099999999995</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>-1.4349499999999999</v>
+        <v>10.8415</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>5.7498100000000003E-2</v>
+        <v>14.8804</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>1.2893399999999999</v>
+        <v>4.60731</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>-1.4496199999999999</v>
+        <v>0.64845699999999995</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>-2.1852999999999998</v>
+        <v>-7.90219</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>4.5785600000000004</v>
+        <v>-7.6858399999999998</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>3.07315</v>
+        <v>-3.4737</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>4.91249</v>
+        <v>2.3932600000000002</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>4.7302900000000001</v>
+        <v>-8.7343499999999992</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>4.6326299999999998</v>
+        <v>-8.4140999999999995</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>2.0179299999999998</v>
+        <v>8.9697200000000006</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>-1.4838800000000001</v>
+        <v>12.2653</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>-3.3196699999999999</v>
+        <v>6.73794</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>-4.2242100000000002</v>
+        <v>1.15388</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>-5.25406</v>
+        <v>-2.7042299999999999</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>-2.7643300000000002</v>
+        <v>4.0610299999999997</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>-6.3597400000000004</v>
+        <v>0.84672499999999995</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>-7.4443599999999996</v>
+        <v>18.289400000000001</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>-11.406000000000001</v>
+        <v>-2.17265</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>-5.2153799999999997</v>
+        <v>-5.0648499999999999</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>-7.7573999999999996</v>
+        <v>3.1800299999999999</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>-7.3046499999999996</v>
+        <v>11.3262</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>-3.3506499999999999</v>
+        <v>7.7616399999999999</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>-6.5694499999999998</v>
+        <v>-2.3614199999999999</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>-8.7498699999999996</v>
+        <v>-0.53397899999999998</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>-4.2193300000000002</v>
+        <v>-2.4438900000000001</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>-0.65371500000000005</v>
+        <v>7.3339399999999997E-3</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>-1.5923499999999999</v>
+        <v>14.4095</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>-10.3361</v>
+        <v>-0.89443700000000004</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>-4.85419</v>
+        <v>-7.0007400000000004</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>-5.2212500000000004</v>
+        <v>1.1331599999999999</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812">
-        <v>-5.8234300000000001</v>
+        <v>11.142799999999999</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>-6.0736699999999999</v>
+        <v>12.9655</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>-0.52374100000000001</v>
+        <v>4.0207300000000004</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>-5.1051900000000003</v>
+        <v>0.42338500000000001</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>-4.7853199999999996</v>
+        <v>-0.50126599999999999</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817">
-        <v>-3.14208</v>
+        <v>6.1388600000000002</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>0.20451800000000001</v>
+        <v>14.2126</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>-3.2588400000000002</v>
+        <v>9.9156399999999998</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>-4.6046699999999996</v>
+        <v>-5.7204899999999999</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821">
-        <v>-2.7537400000000001</v>
+        <v>5.0777299999999999</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822">
-        <v>-1.34388</v>
+        <v>11.589399999999999</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823">
-        <v>-9.7811900000000005</v>
+        <v>14.4794</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824">
-        <v>-6.3752199999999997</v>
+        <v>6.4125699999999997</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>-11.132899999999999</v>
+        <v>2.8769499999999999</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826">
-        <v>-5.9970600000000003</v>
+        <v>-1.1207800000000001</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>-9.5607399999999991</v>
+        <v>-0.56643299999999996</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>-4.1874700000000002</v>
+        <v>15.7904</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>-4.5370699999999999</v>
+        <v>20.255600000000001</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>-4.7341499999999996</v>
+        <v>4.6912500000000001</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831">
-        <v>-4.7105499999999996</v>
+        <v>-1.36589</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832">
-        <v>-5.1143599999999996</v>
+        <v>8.7691499999999998</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833">
-        <v>-8.4263499999999993</v>
+        <v>14.0213</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>-7.1217300000000003</v>
+        <v>8.4636499999999995</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835">
-        <v>-5.0340800000000003</v>
+        <v>0.91398400000000002</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836">
-        <v>-14.2035</v>
+        <v>2.2065399999999999</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>-14.7416</v>
+        <v>18.936599999999999</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>-15.3553</v>
+        <v>14.422700000000001</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839">
-        <v>-21.551200000000001</v>
+        <v>22.831199999999999</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>-31.533300000000001</v>
+        <v>20.744199999999999</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>-42.268500000000003</v>
+        <v>-3.9099399999999999E-2</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842">
-        <v>-46.511400000000002</v>
+        <v>7.7263599999999997</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843">
-        <v>-36.953000000000003</v>
+        <v>16.290900000000001</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>-52.308199999999999</v>
+        <v>12.9049</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>-57.640999999999998</v>
+        <v>9.6892200000000006</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>-54.048499999999997</v>
+        <v>3.9609999999999999</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847">
-        <v>-58.911799999999999</v>
+        <v>4.7335500000000001</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848">
-        <v>-55.494500000000002</v>
+        <v>8.8411899999999992</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>-53.4664</v>
+        <v>15.045400000000001</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>-59.167700000000004</v>
+        <v>6.9588599999999996</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>-62.573799999999999</v>
+        <v>1.1818E-2</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>-61.594299999999997</v>
+        <v>4.35433</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853">
-        <v>-60.9407</v>
+        <v>11.563599999999999</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>-65.112899999999996</v>
+        <v>8.4811800000000002</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855">
-        <v>-64.602199999999996</v>
+        <v>1.5842000000000001</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856">
-        <v>-65.321299999999994</v>
+        <v>1.77694</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857">
-        <v>-63.350900000000003</v>
+        <v>6.3933799999999996</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858">
-        <v>-62.0914</v>
+        <v>13.4556</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>-63.983800000000002</v>
+        <v>14.249599999999999</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>-62.376199999999997</v>
+        <v>16.238</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>-60.554099999999998</v>
+        <v>-0.98886399999999997</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>-62.450499999999998</v>
+        <v>8.3830200000000001</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863">
-        <v>-60.671100000000003</v>
+        <v>13.4108</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>-61.837299999999999</v>
+        <v>14.5787</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>-60.469299999999997</v>
+        <v>3.4786600000000001</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>-60.381999999999998</v>
+        <v>-3.31657</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867">
-        <v>-65.581500000000005</v>
+        <v>1.3204499999999999</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868">
-        <v>-62.273099999999999</v>
+        <v>-1.8734599999999999</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869">
-        <v>-61.091700000000003</v>
+        <v>-2.9431400000000001</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>-60.421700000000001</v>
+        <v>6.8032899999999996</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871">
-        <v>-59.495100000000001</v>
+        <v>-7.5549799999999996</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872">
-        <v>-59.286999999999999</v>
+        <v>-4.4199099999999998</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873">
-        <v>-59.493200000000002</v>
+        <v>8.6927400000000006</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>-53.666400000000003</v>
+        <v>6.7885999999999997</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875">
-        <v>-56.477800000000002</v>
+        <v>10.215400000000001</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876">
-        <v>-55.469499999999996</v>
+        <v>4.3064799999999996</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>-55.716999999999999</v>
+        <v>0.21574599999999999</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>-46.470599999999997</v>
+        <v>16.919699999999999</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879">
-        <v>-48.341299999999997</v>
+        <v>16.5611</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880">
-        <v>-52.526400000000002</v>
+        <v>20.184100000000001</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>-47.292000000000002</v>
+        <v>-1.4273100000000001</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>-40.892600000000002</v>
+        <v>-3.41879</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883">
-        <v>-42.109400000000001</v>
+        <v>9.52928</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>-37.351300000000002</v>
+        <v>14.9458</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>-34.267299999999999</v>
+        <v>13.356199999999999</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>-26.4788</v>
+        <v>0.860904</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>-36.974800000000002</v>
+        <v>0.27808300000000002</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888">
-        <v>-31.612400000000001</v>
+        <v>1.07501</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889">
-        <v>-20.185300000000002</v>
+        <v>8.2575299999999991</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890">
-        <v>-23.2942</v>
+        <v>13.4506</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>-23.9861</v>
+        <v>6.3495900000000001</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892">
-        <v>-20.4238</v>
+        <v>-2.72437</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893">
-        <v>-19.5197</v>
+        <v>-1.58527</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894">
-        <v>-13.8179</v>
+        <v>12.376300000000001</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>-12.92</v>
+        <v>10.813599999999999</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>-11.325100000000001</v>
+        <v>-10.572699999999999</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897">
-        <v>-14.893700000000001</v>
+        <v>-8.1827299999999994</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898">
-        <v>-12.693</v>
+        <v>-11.3146</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899">
-        <v>-12.2681</v>
+        <v>-10.6974</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900">
-        <v>-13.102</v>
+        <v>-8.3555100000000007</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>-10.598000000000001</v>
+        <v>-1.2576099999999999</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>-9.9976199999999995</v>
+        <v>-9.8373500000000007</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>-10.1149</v>
+        <v>-5.11449</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904">
-        <v>-14.528499999999999</v>
+        <v>4.48332</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905">
-        <v>-8.6527700000000003</v>
+        <v>4.4120400000000002</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906">
-        <v>-5.2614799999999997</v>
+        <v>-1.51431</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907">
-        <v>-14.071099999999999</v>
+        <v>1.0058800000000001</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>-12.939500000000001</v>
+        <v>-5.19259</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>-9.4733699999999992</v>
+        <v>-9.7321200000000001</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910">
-        <v>-13.2418</v>
+        <v>-11.275600000000001</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>-9.5633999999999997</v>
+        <v>-7.3465699999999998</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>-9.8209099999999996</v>
+        <v>-11.821199999999999</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>-12.8429</v>
+        <v>-10.333600000000001</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914">
-        <v>-4.2123100000000004</v>
+        <v>-3.8925299999999998</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>0.36926599999999998</v>
+        <v>0.88642299999999996</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916">
-        <v>1.5161199999999999</v>
+        <v>-1.8188500000000001</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917">
-        <v>3.6119400000000002</v>
+        <v>-5.2427099999999998</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918">
-        <v>7.6103100000000001</v>
+        <v>-8.6652900000000006</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919">
-        <v>3.1233300000000002</v>
+        <v>-13.288399999999999</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920">
-        <v>3.7519399999999998</v>
+        <v>-6.5688599999999999</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921">
-        <v>1.8024100000000001</v>
+        <v>-6.8581399999999997</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922">
-        <v>4.93588</v>
+        <v>-11.104699999999999</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>2.01362</v>
+        <v>-10.634399999999999</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924">
-        <v>9.4822399999999991</v>
+        <v>-0.27333200000000002</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925">
-        <v>9.7201500000000003</v>
+        <v>2.08657</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926">
-        <v>17.515000000000001</v>
+        <v>-1.68957</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927">
-        <v>16.183599999999998</v>
+        <v>-7.4792500000000004</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928">
-        <v>16.023900000000001</v>
+        <v>-5.0509300000000001</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929">
-        <v>16.705400000000001</v>
+        <v>-15.1913</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930">
-        <v>18.600300000000001</v>
+        <v>-19.811499999999999</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931">
-        <v>17.9999</v>
+        <v>-18.808</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932">
-        <v>18.440999999999999</v>
+        <v>-14.0402</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>25.7437</v>
+        <v>-14.337899999999999</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934">
-        <v>42.051600000000001</v>
+        <v>-11.816000000000001</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935">
-        <v>35.860700000000001</v>
+        <v>-12.0679</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936">
-        <v>32.3962</v>
+        <v>-17.563600000000001</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937">
-        <v>33.125700000000002</v>
+        <v>-27.7316</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938">
-        <v>26.0671</v>
+        <v>-13.861599999999999</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>36.006900000000002</v>
+        <v>-13.817500000000001</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>23.9343</v>
+        <v>-9.4384499999999996</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941">
-        <v>26.541499999999999</v>
+        <v>-11.038399999999999</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942">
-        <v>33.959099999999999</v>
+        <v>-2.4500799999999998</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943">
-        <v>24.965399999999999</v>
+        <v>-9.1473499999999994</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944">
-        <v>30.217600000000001</v>
+        <v>-11.819900000000001</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945">
-        <v>19.0886</v>
+        <v>-5.2995000000000001</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946">
-        <v>15.641400000000001</v>
+        <v>-13.8626</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947">
-        <v>16.239100000000001</v>
+        <v>-19.348400000000002</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948">
-        <v>25.95</v>
+        <v>-16.850999999999999</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>28.367799999999999</v>
+        <v>-9.8811699999999991</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950">
-        <v>30.129000000000001</v>
+        <v>-14.923</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951">
-        <v>19.610399999999998</v>
+        <v>-7.2896000000000001</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952">
-        <v>17.4786</v>
+        <v>-5.7859800000000003</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953">
-        <v>21.2423</v>
+        <v>-16.796199999999999</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954">
-        <v>18.883800000000001</v>
+        <v>-13.738899999999999</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955">
-        <v>11.0123</v>
+        <v>-16.625900000000001</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>17.392099999999999</v>
+        <v>-13.694699999999999</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957">
-        <v>19.3536</v>
+        <v>-15.911099999999999</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958">
-        <v>11.3704</v>
+        <v>-18.7074</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959">
-        <v>10.606</v>
+        <v>-10.580500000000001</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960">
-        <v>13.463200000000001</v>
+        <v>-20.303100000000001</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961">
-        <v>16.2026</v>
+        <v>-18.717199999999998</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962">
-        <v>18.201599999999999</v>
+        <v>-6.2353100000000001</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963">
-        <v>38.117600000000003</v>
+        <v>-10.172700000000001</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964">
-        <v>22.6953</v>
+        <v>-10.313800000000001</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965">
-        <v>15.1022</v>
+        <v>-2.3383600000000002</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966">
-        <v>19.736699999999999</v>
+        <v>11.950699999999999</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967">
-        <v>9.8701500000000006</v>
+        <v>3.9970500000000002</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968">
-        <v>8.0722100000000001</v>
+        <v>-1.6804399999999999</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969">
-        <v>5.10222</v>
+        <v>-5.0590400000000004</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970">
-        <v>12.597200000000001</v>
+        <v>-6.7988999999999997</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971">
-        <v>6.83005</v>
+        <v>-1.4103300000000001</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972">
-        <v>13.5945</v>
+        <v>0.34701900000000002</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973">
-        <v>13.386200000000001</v>
+        <v>-6.8793499999999996</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974">
-        <v>12.4192</v>
+        <v>-6.6275899999999996</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975">
-        <v>10.058</v>
+        <v>2.60595</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976">
-        <v>2.8184900000000002</v>
+        <v>7.97098</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977">
-        <v>3.2243499999999998</v>
+        <v>11.838800000000001</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978">
-        <v>6.3415900000000001</v>
+        <v>3.5169199999999998</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979">
-        <v>8.0845500000000001</v>
+        <v>1.9734400000000001</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980">
-        <v>8.2157099999999996</v>
+        <v>4.1031700000000004</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981">
-        <v>9.3549199999999999</v>
+        <v>-0.61893100000000001</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982">
-        <v>8.0705500000000008</v>
+        <v>-2.16961</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>7.1451900000000004</v>
+        <v>10.242699999999999</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984">
-        <v>13.5412</v>
+        <v>-4.8710800000000001</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985">
-        <v>9.3558800000000009</v>
+        <v>-3.8504200000000002</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986">
-        <v>11.2174</v>
+        <v>0.33101999999999998</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987">
-        <v>12.4275</v>
+        <v>7.6326900000000002</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988">
-        <v>16.291399999999999</v>
+        <v>2.7204299999999999</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989">
-        <v>12.819900000000001</v>
+        <v>7.3591999999999998E-3</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990">
-        <v>14.9536</v>
+        <v>-1.7533300000000001</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991">
-        <v>11.1751</v>
+        <v>-1.04284</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992">
-        <v>10.143000000000001</v>
+        <v>1.0757000000000001</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993">
-        <v>12.4457</v>
+        <v>-1.9990399999999999</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994">
-        <v>13.9148</v>
+        <v>-4.8484800000000003</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995">
-        <v>12.765599999999999</v>
+        <v>-3.1150899999999999</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996">
-        <v>11.4655</v>
+        <v>4.5760899999999998</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997">
-        <v>12.4872</v>
+        <v>4.9223600000000003</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998">
-        <v>17.145</v>
+        <v>6.46652</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999">
-        <v>3.5078800000000001</v>
+        <v>0.68009699999999995</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000">
-        <v>9.7592300000000005</v>
+        <v>-2.7151900000000002</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001">
-        <v>7.0688500000000003</v>
+        <v>-5.3840899999999996</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002">
-        <v>4.1273600000000004</v>
+        <v>-0.21217800000000001</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003">
-        <v>6.5431299999999997</v>
+        <v>1.35504</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004">
-        <v>6.0664499999999997</v>
+        <v>-5.7268299999999996</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005">
-        <v>8.9270899999999997</v>
+        <v>-7.4538000000000002</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006">
-        <v>4.4844600000000003</v>
+        <v>-2.3109799999999998</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007">
-        <v>2.39445</v>
+        <v>5.2650100000000002</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008">
-        <v>5.0004900000000001</v>
+        <v>9.1491900000000008</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009">
-        <v>7.3621100000000004</v>
+        <v>-1.57691</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010">
-        <v>8.3606200000000008</v>
+        <v>-8.3365100000000005</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1011">
-        <v>6.6623999999999999</v>
+        <v>-11.072699999999999</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1012">
-        <v>5.8401699999999996</v>
+        <v>-8.7759400000000003</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013">
-        <v>6.4438800000000001</v>
+        <v>-6.5266900000000003</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014">
-        <v>10.2271</v>
+        <v>-6.0129799999999998</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015">
-        <v>5.2189500000000004</v>
+        <v>-10.8308</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016">
-        <v>3.9445299999999999</v>
+        <v>-4.8847699999999996</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017">
-        <v>3.7899099999999999</v>
+        <v>5.35032</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018">
-        <v>8.1535100000000007</v>
+        <v>0.430865</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019">
-        <v>7.1930699999999996</v>
+        <v>-8.6944800000000004</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020">
-        <v>1.9966999999999999</v>
+        <v>-6.3508500000000003</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021">
-        <v>7.3370699999999998</v>
+        <v>0.864394</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022">
-        <v>7.53444</v>
+        <v>-2.9766300000000001</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023">
-        <v>12.255000000000001</v>
+        <v>-1.98427</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024">
-        <v>6.1626500000000002</v>
+        <v>-5.5673500000000002</v>
       </c>
     </row>
   </sheetData>
